--- a/url_collector/url_collector_count_sheet.xlsx
+++ b/url_collector/url_collector_count_sheet.xlsx
@@ -1,72 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\OneDrive\Desktop\web-scrapping-pipeline\url_collector\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F6A2F-0E9A-4E06-95D4-8A74974A3D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BE756F78-C5D5-4903-B671-E8D12B1314B6}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="collector_count" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="collector_count" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>project_name</t>
-  </si>
-  <si>
-    <t>site_name</t>
-  </si>
-  <si>
-    <t>total_url_count</t>
-  </si>
-  <si>
-    <t>uniq_id</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,22 +47,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,37 +422,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088C7B0D-4136-4843-B354-5782111F13B0}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col width="11.88671875" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="17.33203125" customWidth="1" min="4" max="4"/>
+    <col width="14.109375" customWidth="1" min="5" max="5"/>
+    <col width="8.88671875" customWidth="1" min="6" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uniq_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>project_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>site_name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>total_url_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>d63bdc4265610a7af6121d260f430025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-07-19 21:29:22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>apple_aus</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>jbhifi_nz_com</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7c43af354bda7cfefc92fd405f4cafb3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-07-19 21:33:13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>apple_aus</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>jbhifi_nz_com</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/url_collector/url_collector_count_sheet.xlsx
+++ b/url_collector/url_collector_count_sheet.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -676,6 +676,31 @@
         <v>40</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>40a91ef644b6e58f57be179a44d6bfd3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-08-16 20:45:27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>apple_aus</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>jbhifi_nz_com</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/url_collector/url_collector_count_sheet.xlsx
+++ b/url_collector/url_collector_count_sheet.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -701,6 +701,106 @@
         <v>40</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>b4fadc7d4a37c2759b73e4de0ebac32e</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-08-17 17:44:32</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>apple_aus</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>jbhifi_nz_com</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0e353c4f5d60fcb0c34918b9da846467</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-08-17 17:46:56</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>apple_aus</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>jbhifi_nz_com</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7dbae298cbb9f013fa7351e08be2c321</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-08-17 17:56:57</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>apple_aus</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>jbhifi_nz_com</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c906e090331551f87ccb5f5bf8aac897</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-08-17 17:57:29</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>apple_aus</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>jbhifi_nz_com</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
